--- a/Code/Results/Cases/Case_2_202/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_202/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9998584337314894</v>
+        <v>1.025592242350629</v>
       </c>
       <c r="D2">
-        <v>1.016392880256242</v>
+        <v>1.029703073679386</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>0.9926147277508489</v>
       </c>
       <c r="F2">
-        <v>0.976706216266554</v>
+        <v>1.024094311281119</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040293153333078</v>
+        <v>1.032349696484665</v>
       </c>
       <c r="J2">
-        <v>1.02204337984689</v>
+        <v>1.030760403123009</v>
       </c>
       <c r="K2">
-        <v>1.027628464248001</v>
+        <v>1.03251621596089</v>
       </c>
       <c r="L2">
-        <v>0.9648701708403392</v>
+        <v>0.9955398523336033</v>
       </c>
       <c r="M2">
-        <v>0.9884999008429627</v>
+        <v>1.026923821697653</v>
       </c>
       <c r="N2">
-        <v>1.023494798676287</v>
+        <v>1.032224201125319</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.003935649456584</v>
+        <v>1.026428456599205</v>
       </c>
       <c r="D3">
-        <v>1.019229335702446</v>
+        <v>1.030303031458803</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057848</v>
+        <v>0.9936372048519304</v>
       </c>
       <c r="F3">
-        <v>0.9834406016105618</v>
+        <v>1.025564042921461</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041347203946919</v>
+        <v>1.032513588753615</v>
       </c>
       <c r="J3">
-        <v>1.024319596679528</v>
+        <v>1.031236601235201</v>
       </c>
       <c r="K3">
-        <v>1.029621946445848</v>
+        <v>1.032924935151167</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474066</v>
+        <v>0.9963617723202692</v>
       </c>
       <c r="M3">
-        <v>0.9942898414544542</v>
+        <v>1.028198768326416</v>
       </c>
       <c r="N3">
-        <v>1.025774247997912</v>
+        <v>1.032701075493446</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.006516671837152</v>
+        <v>1.026969553194661</v>
       </c>
       <c r="D4">
-        <v>1.02102744967931</v>
+        <v>1.03069125267988</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088612</v>
+        <v>0.9942998659930995</v>
       </c>
       <c r="F4">
-        <v>0.9876921993680181</v>
+        <v>1.026515113353726</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042004690769839</v>
+        <v>1.032618460751116</v>
       </c>
       <c r="J4">
-        <v>1.025755136788601</v>
+        <v>1.031544099509201</v>
       </c>
       <c r="K4">
-        <v>1.030878546764751</v>
+        <v>1.033188717207306</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952756</v>
+        <v>0.9968940712668345</v>
       </c>
       <c r="M4">
-        <v>0.9979414740718132</v>
+        <v>1.029023303398076</v>
       </c>
       <c r="N4">
-        <v>1.0272118267386</v>
+        <v>1.033009010450266</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.007588536071296</v>
+        <v>1.027197032078154</v>
       </c>
       <c r="D5">
-        <v>1.021774749299316</v>
+        <v>1.030854461960202</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769891</v>
+        <v>0.9945786998346017</v>
       </c>
       <c r="F5">
-        <v>0.989455439160467</v>
+        <v>1.026914960621605</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042275368085947</v>
+        <v>1.032662266843601</v>
       </c>
       <c r="J5">
-        <v>1.026349998429036</v>
+        <v>1.031673219758633</v>
       </c>
       <c r="K5">
-        <v>1.031399092682767</v>
+        <v>1.033299446350823</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702912</v>
+        <v>0.997117960005301</v>
       </c>
       <c r="M5">
-        <v>0.9994549737931993</v>
+        <v>1.029369835723623</v>
       </c>
       <c r="N5">
-        <v>1.027807533150796</v>
+        <v>1.033138314065262</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.007767746841364</v>
+        <v>1.027235226878024</v>
       </c>
       <c r="D6">
-        <v>1.021899726484492</v>
+        <v>1.030881865552444</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>0.9946255319796338</v>
       </c>
       <c r="F6">
-        <v>0.9897501143759707</v>
+        <v>1.026982097862731</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042320484120512</v>
+        <v>1.032669605529604</v>
       </c>
       <c r="J6">
-        <v>1.026449379972324</v>
+        <v>1.031694890692937</v>
       </c>
       <c r="K6">
-        <v>1.031486048316069</v>
+        <v>1.033318028581882</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>0.9971555583673453</v>
       </c>
       <c r="M6">
-        <v>0.9997078571594832</v>
+        <v>1.029428014126861</v>
       </c>
       <c r="N6">
-        <v>1.027907055827275</v>
+        <v>1.033160015774779</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.006531045357673</v>
+        <v>1.026972592771941</v>
       </c>
       <c r="D7">
-        <v>1.021037468657199</v>
+        <v>1.03069343348722</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>0.9943035907982488</v>
       </c>
       <c r="F7">
-        <v>0.9877158531030822</v>
+        <v>1.026520456059809</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042008329898951</v>
+        <v>1.032619047199031</v>
       </c>
       <c r="J7">
-        <v>1.02576311892676</v>
+        <v>1.031545825418036</v>
       </c>
       <c r="K7">
-        <v>1.030885532377298</v>
+        <v>1.033190197423808</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>0.9968970624462087</v>
       </c>
       <c r="M7">
-        <v>0.9979617812369641</v>
+        <v>1.029027934177543</v>
       </c>
       <c r="N7">
-        <v>1.027219820212311</v>
+        <v>1.033010738810089</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.001248502635896</v>
+        <v>1.025874842468228</v>
       </c>
       <c r="D8">
-        <v>1.017359371092699</v>
+        <v>1.02990582991538</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>0.9929600610674301</v>
       </c>
       <c r="F8">
-        <v>0.979004858589324</v>
+        <v>1.02459100477046</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040654551037653</v>
+        <v>1.032405328249536</v>
       </c>
       <c r="J8">
-        <v>1.022820550371864</v>
+        <v>1.030921467544184</v>
       </c>
       <c r="K8">
-        <v>1.028309222767001</v>
+        <v>1.032654486411489</v>
       </c>
       <c r="L8">
-        <v>0.966070643453771</v>
+        <v>0.995817528259106</v>
       </c>
       <c r="M8">
-        <v>0.9904769384682507</v>
+        <v>1.027354789091173</v>
       </c>
       <c r="N8">
-        <v>1.024273072872549</v>
+        <v>1.032385494276441</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9914778760538173</v>
+        <v>1.023940566282738</v>
       </c>
       <c r="D9">
-        <v>1.010578601207685</v>
+        <v>1.028518077207004</v>
       </c>
       <c r="E9">
-        <v>0.9435740419925933</v>
+        <v>0.9906006454969559</v>
       </c>
       <c r="F9">
-        <v>0.9627823398606949</v>
+        <v>1.021191317514622</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038073794798441</v>
+        <v>1.032019722924527</v>
       </c>
       <c r="J9">
-        <v>1.017335203766094</v>
+        <v>1.029816428456417</v>
       </c>
       <c r="K9">
-        <v>1.023502348262163</v>
+        <v>1.031705256719966</v>
       </c>
       <c r="L9">
-        <v>0.9576541208834081</v>
+        <v>0.9939188001724441</v>
       </c>
       <c r="M9">
-        <v>0.9765095597361474</v>
+        <v>1.024402972133717</v>
       </c>
       <c r="N9">
-        <v>1.018779936445421</v>
+        <v>1.031278885906421</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9846172706408102</v>
+        <v>1.022651144897556</v>
       </c>
       <c r="D10">
-        <v>1.005835417778942</v>
+        <v>1.027593033464755</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547283</v>
+        <v>0.989033133672735</v>
       </c>
       <c r="F10">
-        <v>0.9512870777923287</v>
+        <v>1.018924783183762</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036211147965745</v>
+        <v>1.031756612378359</v>
       </c>
       <c r="J10">
-        <v>1.013454785004799</v>
+        <v>1.029076496880997</v>
       </c>
       <c r="K10">
-        <v>1.020100105253502</v>
+        <v>1.031068940524896</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689358</v>
+        <v>0.9926553831429383</v>
       </c>
       <c r="M10">
-        <v>0.9665953194725866</v>
+        <v>1.022432519768097</v>
       </c>
       <c r="N10">
-        <v>1.014894007044394</v>
+        <v>1.030537903543292</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9815553468958123</v>
+        <v>1.022092839306676</v>
       </c>
       <c r="D11">
-        <v>1.00372347837609</v>
+        <v>1.027192519834161</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016257</v>
+        <v>0.988355674866747</v>
       </c>
       <c r="F11">
-        <v>0.9461244030468722</v>
+        <v>1.017943275545737</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.03536817497532</v>
+        <v>1.031641252663634</v>
       </c>
       <c r="J11">
-        <v>1.011716098379662</v>
+        <v>1.02875533289007</v>
       </c>
       <c r="K11">
-        <v>1.018575515315761</v>
+        <v>1.030792584249455</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416573</v>
+        <v>0.9921088820399291</v>
       </c>
       <c r="M11">
-        <v>0.9621392504433666</v>
+        <v>1.021578635017787</v>
       </c>
       <c r="N11">
-        <v>1.01315285128482</v>
+        <v>1.03021628346266</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9804034667995623</v>
+        <v>1.021885463454856</v>
       </c>
       <c r="D12">
-        <v>1.002929784388722</v>
+        <v>1.027043757546277</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>0.9881042295826724</v>
       </c>
       <c r="F12">
-        <v>0.9441766595681064</v>
+        <v>1.017578682562724</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.035049327322756</v>
+        <v>1.031598188097417</v>
       </c>
       <c r="J12">
-        <v>1.011060982531786</v>
+        <v>1.028635922941443</v>
       </c>
       <c r="K12">
-        <v>1.018001068786769</v>
+        <v>1.030689809294589</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252507</v>
+        <v>0.9919059725120875</v>
       </c>
       <c r="M12">
-        <v>0.9604576272010349</v>
+        <v>1.021261360075911</v>
       </c>
       <c r="N12">
-        <v>1.012496805097297</v>
+        <v>1.030096703938209</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9806512214532617</v>
+        <v>1.02192994610602</v>
       </c>
       <c r="D13">
-        <v>1.00310046035698</v>
+        <v>1.027075667263243</v>
       </c>
       <c r="E13">
-        <v>0.931872359336823</v>
+        <v>0.9881581567098651</v>
       </c>
       <c r="F13">
-        <v>0.9445958583583117</v>
+        <v>1.017656889857775</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.035117984888977</v>
+        <v>1.031607435311825</v>
       </c>
       <c r="J13">
-        <v>1.011201936219328</v>
+        <v>1.028661541997886</v>
       </c>
       <c r="K13">
-        <v>1.018124665376295</v>
+        <v>1.030711860473901</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965215</v>
+        <v>0.9919494934313052</v>
       </c>
       <c r="M13">
-        <v>0.9608195708541672</v>
+        <v>1.02132942140565</v>
       </c>
       <c r="N13">
-        <v>1.012637958955243</v>
+        <v>1.030122359376652</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9814604339517566</v>
+        <v>1.022075697476571</v>
       </c>
       <c r="D14">
-        <v>1.003658062603142</v>
+        <v>1.027180222963559</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.9883348863814464</v>
       </c>
       <c r="F14">
-        <v>0.9459640299681806</v>
+        <v>1.017913138557826</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.035341937382288</v>
+        <v>1.031637697314641</v>
       </c>
       <c r="J14">
-        <v>1.011662138935284</v>
+        <v>1.028745464778561</v>
       </c>
       <c r="K14">
-        <v>1.018528200151963</v>
+        <v>1.030784091365782</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764519</v>
+        <v>0.9920921077337197</v>
       </c>
       <c r="M14">
-        <v>0.9620007982218153</v>
+        <v>1.021552411119946</v>
       </c>
       <c r="N14">
-        <v>1.013098815211841</v>
+        <v>1.030206401337301</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9819570627883415</v>
+        <v>1.022165500207211</v>
       </c>
       <c r="D15">
-        <v>1.004000381707397</v>
+        <v>1.027244644041976</v>
       </c>
       <c r="E15">
-        <v>0.9332781050737295</v>
+        <v>0.9884438009545853</v>
       </c>
       <c r="F15">
-        <v>0.9468029452900414</v>
+        <v>1.018071019396213</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.035479154573914</v>
+        <v>1.031656314271319</v>
       </c>
       <c r="J15">
-        <v>1.011944437911206</v>
+        <v>1.028797157093973</v>
       </c>
       <c r="K15">
-        <v>1.018775738484138</v>
+        <v>1.030828578790511</v>
       </c>
       <c r="L15">
-        <v>0.9494987508782939</v>
+        <v>0.9921799884222134</v>
       </c>
       <c r="M15">
-        <v>0.9627250264934638</v>
+        <v>1.021689788522296</v>
       </c>
       <c r="N15">
-        <v>1.013381515084689</v>
+        <v>1.03025816706173</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.984818488288994</v>
+        <v>1.022688198301587</v>
       </c>
       <c r="D16">
-        <v>1.005974314633208</v>
+        <v>1.027619615074151</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017259</v>
+        <v>0.9890781214508737</v>
       </c>
       <c r="F16">
-        <v>0.9516256174976087</v>
+        <v>1.01898992044611</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036266304341063</v>
+        <v>1.031764238285915</v>
       </c>
       <c r="J16">
-        <v>1.013568902148401</v>
+        <v>1.029097795293988</v>
       </c>
       <c r="K16">
-        <v>1.020200169062062</v>
+        <v>1.031087263982699</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175716</v>
+        <v>0.9926916645766087</v>
       </c>
       <c r="M16">
-        <v>0.9668874567059574</v>
+        <v>1.022489174909079</v>
       </c>
       <c r="N16">
-        <v>1.01500828624743</v>
+        <v>1.030559232202473</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9865883889557689</v>
+        <v>1.023016079240298</v>
       </c>
       <c r="D17">
-        <v>1.007196616605495</v>
+        <v>1.027854834838296</v>
       </c>
       <c r="E17">
-        <v>0.938276015685567</v>
+        <v>0.989476357848556</v>
       </c>
       <c r="F17">
-        <v>0.9545996473415553</v>
+        <v>1.019566297089691</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.036750134411669</v>
+        <v>1.031831553144755</v>
       </c>
       <c r="J17">
-        <v>1.014571893781086</v>
+        <v>1.029286171990116</v>
       </c>
       <c r="K17">
-        <v>1.021079628808176</v>
+        <v>1.031249309157577</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068051</v>
+        <v>0.9930127773699352</v>
       </c>
       <c r="M17">
-        <v>0.969453461442764</v>
+        <v>1.022990427717103</v>
       </c>
       <c r="N17">
-        <v>1.016012702243278</v>
+        <v>1.030747876415117</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9876119993751654</v>
+        <v>1.023207328781069</v>
       </c>
       <c r="D18">
-        <v>1.007903993582901</v>
+        <v>1.027992038004897</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215687</v>
+        <v>0.9897087662937556</v>
       </c>
       <c r="F18">
-        <v>0.9563166505203131</v>
+        <v>1.01990248012018</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037028847377979</v>
+        <v>1.031870678669711</v>
       </c>
       <c r="J18">
-        <v>1.015151320094962</v>
+        <v>1.029395974748137</v>
       </c>
       <c r="K18">
-        <v>1.021587674415403</v>
+        <v>1.03134374753446</v>
       </c>
       <c r="L18">
-        <v>0.954337351586573</v>
+        <v>0.9932001317071769</v>
       </c>
       <c r="M18">
-        <v>0.9709345688926392</v>
+        <v>1.023282736027173</v>
       </c>
       <c r="N18">
-        <v>1.016592951408981</v>
+        <v>1.030857835105648</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9879595654481257</v>
+        <v>1.023272540284078</v>
       </c>
       <c r="D19">
-        <v>1.008144260245051</v>
+        <v>1.028038821299989</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684969</v>
+        <v>0.9897880325774034</v>
       </c>
       <c r="F19">
-        <v>0.9568991676672879</v>
+        <v>1.020017108683994</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037123295557602</v>
+        <v>1.03188399603421</v>
       </c>
       <c r="J19">
-        <v>1.015347954087656</v>
+        <v>1.029433402063876</v>
       </c>
       <c r="K19">
-        <v>1.021760081163538</v>
+        <v>1.031375935029077</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816594</v>
+        <v>0.9932640239640975</v>
       </c>
       <c r="M19">
-        <v>0.9714369976741102</v>
+        <v>1.023382394880294</v>
       </c>
       <c r="N19">
-        <v>1.016789864644499</v>
+        <v>1.030895315572468</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9863994054894392</v>
+        <v>1.02298090049505</v>
       </c>
       <c r="D20">
-        <v>1.007066054857578</v>
+        <v>1.027829597619938</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9894336180360679</v>
       </c>
       <c r="F20">
-        <v>0.954282408387817</v>
+        <v>1.019504458162858</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.036698587504342</v>
+        <v>1.031824345179793</v>
       </c>
       <c r="J20">
-        <v>1.014464865224685</v>
+        <v>1.02926596862519</v>
       </c>
       <c r="K20">
-        <v>1.020985783810427</v>
+        <v>1.031231931498754</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057443</v>
+        <v>0.9929783193494215</v>
       </c>
       <c r="M20">
-        <v>0.9691797802813419</v>
+        <v>1.022936654680617</v>
       </c>
       <c r="N20">
-        <v>1.015905521694051</v>
+        <v>1.030727644359095</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9812225496582038</v>
+        <v>1.022032777225756</v>
       </c>
       <c r="D21">
-        <v>1.003494121510305</v>
+        <v>1.027149433735004</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148895</v>
+        <v>0.9882828385668249</v>
       </c>
       <c r="F21">
-        <v>0.9455619878683151</v>
+        <v>1.017837680220131</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.03527614930427</v>
+        <v>1.031628791838068</v>
       </c>
       <c r="J21">
-        <v>1.011526881496718</v>
+        <v>1.0287207547942</v>
       </c>
       <c r="K21">
-        <v>1.018409597688258</v>
+        <v>1.030762824586761</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981064</v>
+        <v>0.9920501090198102</v>
       </c>
       <c r="M21">
-        <v>0.9616537026379925</v>
+        <v>1.021486749114238</v>
       </c>
       <c r="N21">
-        <v>1.012963365692198</v>
+        <v>1.030181656261927</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9778830304123119</v>
+        <v>1.021436676086645</v>
       </c>
       <c r="D22">
-        <v>1.001194650213763</v>
+        <v>1.02672182460589</v>
       </c>
       <c r="E22">
-        <v>0.928897295365116</v>
+        <v>0.9875604150241495</v>
       </c>
       <c r="F22">
-        <v>0.939903671220225</v>
+        <v>1.016789608021511</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.034348509659518</v>
+        <v>1.031504596826823</v>
       </c>
       <c r="J22">
-        <v>1.009625615818817</v>
+        <v>1.028377289954112</v>
       </c>
       <c r="K22">
-        <v>1.016742477941244</v>
+        <v>1.030467161601272</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572515</v>
+        <v>0.9914670000341481</v>
       </c>
       <c r="M22">
-        <v>0.9567676686135681</v>
+        <v>1.020574531462177</v>
       </c>
       <c r="N22">
-        <v>1.011059399998956</v>
+        <v>1.029837703662371</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9796616935832428</v>
+        <v>1.021752678419797</v>
       </c>
       <c r="D23">
-        <v>1.002418906446976</v>
+        <v>1.026948504520853</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963315</v>
+        <v>0.9879432794643023</v>
       </c>
       <c r="F23">
-        <v>0.9429207090139289</v>
+        <v>1.01734522228031</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.034843516912738</v>
+        <v>1.031570552702612</v>
       </c>
       <c r="J23">
-        <v>1.010638818051913</v>
+        <v>1.028559430364201</v>
       </c>
       <c r="K23">
-        <v>1.017630891798642</v>
+        <v>1.030623965980078</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285319</v>
+        <v>0.991776070289318</v>
       </c>
       <c r="M23">
-        <v>0.9593731538260817</v>
+        <v>1.021058173964998</v>
       </c>
       <c r="N23">
-        <v>1.01207404109544</v>
+        <v>1.030020102732734</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9864848259393567</v>
+        <v>1.02299679624911</v>
       </c>
       <c r="D24">
-        <v>1.007125067271803</v>
+        <v>1.02784100122195</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011829</v>
+        <v>0.9894529299347244</v>
       </c>
       <c r="F24">
-        <v>0.9544258095394357</v>
+        <v>1.019532400534754</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.036721890120677</v>
+        <v>1.031827602575562</v>
       </c>
       <c r="J24">
-        <v>1.014513244095941</v>
+        <v>1.029275097885298</v>
       </c>
       <c r="K24">
-        <v>1.021028203524513</v>
+        <v>1.031239783961406</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442545</v>
+        <v>0.9929938892766442</v>
       </c>
       <c r="M24">
-        <v>0.969303493082588</v>
+        <v>1.022960952597838</v>
       </c>
       <c r="N24">
-        <v>1.015953969268852</v>
+        <v>1.0307367865838</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9940621316364587</v>
+        <v>1.02444060819695</v>
       </c>
       <c r="D25">
-        <v>1.012369176398344</v>
+        <v>1.028876826476721</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718012</v>
+        <v>0.9912096547607049</v>
       </c>
       <c r="F25">
-        <v>0.9670887540831136</v>
+        <v>1.022070213526037</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.038765183227529</v>
+        <v>1.032120476834377</v>
       </c>
       <c r="J25">
-        <v>1.018790994588079</v>
+        <v>1.030102679556331</v>
       </c>
       <c r="K25">
-        <v>1.024778464072962</v>
+        <v>1.031951273472153</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005829</v>
+        <v>0.9944092447426414</v>
       </c>
       <c r="M25">
-        <v>0.9802204054307434</v>
+        <v>1.02516652614416</v>
       </c>
       <c r="N25">
-        <v>1.020237794657355</v>
+        <v>1.03156554351573</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_202/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_202/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.025592242350629</v>
+        <v>0.9998584337314897</v>
       </c>
       <c r="D2">
-        <v>1.029703073679386</v>
+        <v>1.016392880256243</v>
       </c>
       <c r="E2">
-        <v>0.9926147277508489</v>
+        <v>0.9527101846680758</v>
       </c>
       <c r="F2">
-        <v>1.024094311281119</v>
+        <v>0.9767062162665545</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.032349696484665</v>
+        <v>1.040293153333079</v>
       </c>
       <c r="J2">
-        <v>1.030760403123009</v>
+        <v>1.022043379846891</v>
       </c>
       <c r="K2">
-        <v>1.03251621596089</v>
+        <v>1.027628464248001</v>
       </c>
       <c r="L2">
-        <v>0.9955398523336033</v>
+        <v>0.964870170840339</v>
       </c>
       <c r="M2">
-        <v>1.026923821697653</v>
+        <v>0.9884999008429632</v>
       </c>
       <c r="N2">
-        <v>1.032224201125319</v>
+        <v>1.023494798676288</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.026428456599205</v>
+        <v>1.003935649456585</v>
       </c>
       <c r="D3">
-        <v>1.030303031458803</v>
+        <v>1.019229335702447</v>
       </c>
       <c r="E3">
-        <v>0.9936372048519304</v>
+        <v>0.9571825583057846</v>
       </c>
       <c r="F3">
-        <v>1.025564042921461</v>
+        <v>0.9834406016105627</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.032513588753615</v>
+        <v>1.04134720394692</v>
       </c>
       <c r="J3">
-        <v>1.031236601235201</v>
+        <v>1.024319596679528</v>
       </c>
       <c r="K3">
-        <v>1.032924935151167</v>
+        <v>1.029621946445848</v>
       </c>
       <c r="L3">
-        <v>0.9963617723202692</v>
+        <v>0.9683942856474063</v>
       </c>
       <c r="M3">
-        <v>1.028198768326416</v>
+        <v>0.9942898414544552</v>
       </c>
       <c r="N3">
-        <v>1.032701075493446</v>
+        <v>1.025774247997913</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.026969553194661</v>
+        <v>1.006516671837151</v>
       </c>
       <c r="D4">
-        <v>1.03069125267988</v>
+        <v>1.021027449679309</v>
       </c>
       <c r="E4">
-        <v>0.9942998659930995</v>
+        <v>0.9600238894088611</v>
       </c>
       <c r="F4">
-        <v>1.026515113353726</v>
+        <v>0.9876921993680171</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.032618460751116</v>
+        <v>1.042004690769839</v>
       </c>
       <c r="J4">
-        <v>1.031544099509201</v>
+        <v>1.0257551367886</v>
       </c>
       <c r="K4">
-        <v>1.033188717207306</v>
+        <v>1.03087854676475</v>
       </c>
       <c r="L4">
-        <v>0.9968940712668345</v>
+        <v>0.9706300002952755</v>
       </c>
       <c r="M4">
-        <v>1.029023303398076</v>
+        <v>0.9979414740718126</v>
       </c>
       <c r="N4">
-        <v>1.033009010450266</v>
+        <v>1.027211826738599</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.027197032078154</v>
+        <v>1.007588536071297</v>
       </c>
       <c r="D5">
-        <v>1.030854461960202</v>
+        <v>1.021774749299316</v>
       </c>
       <c r="E5">
-        <v>0.9945786998346017</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="F5">
-        <v>1.026914960621605</v>
+        <v>0.9894554391604669</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.032662266843601</v>
+        <v>1.042275368085947</v>
       </c>
       <c r="J5">
-        <v>1.031673219758633</v>
+        <v>1.026349998429036</v>
       </c>
       <c r="K5">
-        <v>1.033299446350823</v>
+        <v>1.031399092682767</v>
       </c>
       <c r="L5">
-        <v>0.997117960005301</v>
+        <v>0.9715596031702914</v>
       </c>
       <c r="M5">
-        <v>1.029369835723623</v>
+        <v>0.9994549737931994</v>
       </c>
       <c r="N5">
-        <v>1.033138314065262</v>
+        <v>1.027807533150796</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.027235226878024</v>
+        <v>1.007767746841364</v>
       </c>
       <c r="D6">
-        <v>1.030881865552444</v>
+        <v>1.021899726484492</v>
       </c>
       <c r="E6">
-        <v>0.9946255319796338</v>
+        <v>0.9614041218017083</v>
       </c>
       <c r="F6">
-        <v>1.026982097862731</v>
+        <v>0.9897501143759715</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.032669605529604</v>
+        <v>1.042320484120512</v>
       </c>
       <c r="J6">
-        <v>1.031694890692937</v>
+        <v>1.026449379972325</v>
       </c>
       <c r="K6">
-        <v>1.033318028581882</v>
+        <v>1.031486048316069</v>
       </c>
       <c r="L6">
-        <v>0.9971555583673453</v>
+        <v>0.9717150950965043</v>
       </c>
       <c r="M6">
-        <v>1.029428014126861</v>
+        <v>0.9997078571594841</v>
       </c>
       <c r="N6">
-        <v>1.033160015774779</v>
+        <v>1.027907055827275</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.026972592771941</v>
+        <v>1.006531045357674</v>
       </c>
       <c r="D7">
-        <v>1.03069343348722</v>
+        <v>1.021037468657199</v>
       </c>
       <c r="E7">
-        <v>0.9943035907982488</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.026520456059809</v>
+        <v>0.9877158531030827</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.032619047199031</v>
+        <v>1.042008329898951</v>
       </c>
       <c r="J7">
-        <v>1.031545825418036</v>
+        <v>1.02576311892676</v>
       </c>
       <c r="K7">
-        <v>1.033190197423808</v>
+        <v>1.030885532377298</v>
       </c>
       <c r="L7">
-        <v>0.9968970624462087</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.029027934177543</v>
+        <v>0.9979617812369646</v>
       </c>
       <c r="N7">
-        <v>1.033010738810089</v>
+        <v>1.027219820212311</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.025874842468228</v>
+        <v>1.001248502635897</v>
       </c>
       <c r="D8">
-        <v>1.02990582991538</v>
+        <v>1.017359371092699</v>
       </c>
       <c r="E8">
-        <v>0.9929600610674301</v>
+        <v>0.9542328392922295</v>
       </c>
       <c r="F8">
-        <v>1.02459100477046</v>
+        <v>0.9790048585893243</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.032405328249536</v>
+        <v>1.040654551037652</v>
       </c>
       <c r="J8">
-        <v>1.030921467544184</v>
+        <v>1.022820550371864</v>
       </c>
       <c r="K8">
-        <v>1.032654486411489</v>
+        <v>1.028309222767001</v>
       </c>
       <c r="L8">
-        <v>0.995817528259106</v>
+        <v>0.9660706434537708</v>
       </c>
       <c r="M8">
-        <v>1.027354789091173</v>
+        <v>0.9904769384682509</v>
       </c>
       <c r="N8">
-        <v>1.032385494276441</v>
+        <v>1.02427307287255</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.023940566282738</v>
+        <v>0.9914778760538171</v>
       </c>
       <c r="D9">
-        <v>1.028518077207004</v>
+        <v>1.010578601207685</v>
       </c>
       <c r="E9">
-        <v>0.9906006454969559</v>
+        <v>0.9435740419925935</v>
       </c>
       <c r="F9">
-        <v>1.021191317514622</v>
+        <v>0.9627823398606945</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.032019722924527</v>
+        <v>1.038073794798441</v>
       </c>
       <c r="J9">
-        <v>1.029816428456417</v>
+        <v>1.017335203766094</v>
       </c>
       <c r="K9">
-        <v>1.031705256719966</v>
+        <v>1.023502348262163</v>
       </c>
       <c r="L9">
-        <v>0.9939188001724441</v>
+        <v>0.9576541208834084</v>
       </c>
       <c r="M9">
-        <v>1.024402972133717</v>
+        <v>0.9765095597361472</v>
       </c>
       <c r="N9">
-        <v>1.031278885906421</v>
+        <v>1.018779936445421</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.022651144897556</v>
+        <v>0.9846172706408091</v>
       </c>
       <c r="D10">
-        <v>1.027593033464755</v>
+        <v>1.005835417778941</v>
       </c>
       <c r="E10">
-        <v>0.989033133672735</v>
+        <v>0.9361465105547281</v>
       </c>
       <c r="F10">
-        <v>1.018924783183762</v>
+        <v>0.9512870777923278</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.031756612378359</v>
+        <v>1.036211147965745</v>
       </c>
       <c r="J10">
-        <v>1.029076496880997</v>
+        <v>1.013454785004798</v>
       </c>
       <c r="K10">
-        <v>1.031068940524896</v>
+        <v>1.020100105253501</v>
       </c>
       <c r="L10">
-        <v>0.9926553831429383</v>
+        <v>0.9517730114689357</v>
       </c>
       <c r="M10">
-        <v>1.022432519768097</v>
+        <v>0.9665953194725857</v>
       </c>
       <c r="N10">
-        <v>1.030537903543292</v>
+        <v>1.014894007044393</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.022092839306676</v>
+        <v>0.9815553468958128</v>
       </c>
       <c r="D11">
-        <v>1.027192519834161</v>
+        <v>1.003723478376091</v>
       </c>
       <c r="E11">
-        <v>0.988355674866747</v>
+        <v>0.9328454960016256</v>
       </c>
       <c r="F11">
-        <v>1.017943275545737</v>
+        <v>0.9461244030468726</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.031641252663634</v>
+        <v>1.03536817497532</v>
       </c>
       <c r="J11">
-        <v>1.02875533289007</v>
+        <v>1.011716098379662</v>
       </c>
       <c r="K11">
-        <v>1.030792584249455</v>
+        <v>1.018575515315762</v>
       </c>
       <c r="L11">
-        <v>0.9921088820399291</v>
+        <v>0.9491556125416571</v>
       </c>
       <c r="M11">
-        <v>1.021578635017787</v>
+        <v>0.9621392504433672</v>
       </c>
       <c r="N11">
-        <v>1.03021628346266</v>
+        <v>1.01315285128482</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.021885463454856</v>
+        <v>0.9804034667995618</v>
       </c>
       <c r="D12">
-        <v>1.027043757546277</v>
+        <v>1.002929784388722</v>
       </c>
       <c r="E12">
-        <v>0.9881042295826724</v>
+        <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>1.017578682562724</v>
+        <v>0.9441766595681059</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.031598188097417</v>
+        <v>1.035049327322755</v>
       </c>
       <c r="J12">
-        <v>1.028635922941443</v>
+        <v>1.011060982531786</v>
       </c>
       <c r="K12">
-        <v>1.030689809294589</v>
+        <v>1.018001068786769</v>
       </c>
       <c r="L12">
-        <v>0.9919059725120875</v>
+        <v>0.9481721277252506</v>
       </c>
       <c r="M12">
-        <v>1.021261360075911</v>
+        <v>0.9604576272010342</v>
       </c>
       <c r="N12">
-        <v>1.030096703938209</v>
+        <v>1.012496805097296</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.02192994610602</v>
+        <v>0.9806512214532609</v>
       </c>
       <c r="D13">
-        <v>1.027075667263243</v>
+        <v>1.00310046035698</v>
       </c>
       <c r="E13">
-        <v>0.9881581567098651</v>
+        <v>0.9318723593368229</v>
       </c>
       <c r="F13">
-        <v>1.017656889857775</v>
+        <v>0.9445958583583109</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.031607435311825</v>
+        <v>1.035117984888976</v>
       </c>
       <c r="J13">
-        <v>1.028661541997886</v>
+        <v>1.011201936219327</v>
       </c>
       <c r="K13">
-        <v>1.030711860473901</v>
+        <v>1.018124665376295</v>
       </c>
       <c r="L13">
-        <v>0.9919494934313052</v>
+        <v>0.9483836088965214</v>
       </c>
       <c r="M13">
-        <v>1.02132942140565</v>
+        <v>0.9608195708541665</v>
       </c>
       <c r="N13">
-        <v>1.030122359376652</v>
+        <v>1.012637958955242</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.022075697476571</v>
+        <v>0.9814604339517562</v>
       </c>
       <c r="D14">
-        <v>1.027180222963559</v>
+        <v>1.003658062603141</v>
       </c>
       <c r="E14">
-        <v>0.9883348863814464</v>
+        <v>0.9327433047194318</v>
       </c>
       <c r="F14">
-        <v>1.017913138557826</v>
+        <v>0.9459640299681796</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.031637697314641</v>
+        <v>1.035341937382287</v>
       </c>
       <c r="J14">
-        <v>1.028745464778561</v>
+        <v>1.011662138935283</v>
       </c>
       <c r="K14">
-        <v>1.030784091365782</v>
+        <v>1.018528200151963</v>
       </c>
       <c r="L14">
-        <v>0.9920921077337197</v>
+        <v>0.949074550976452</v>
       </c>
       <c r="M14">
-        <v>1.021552411119946</v>
+        <v>0.9620007982218145</v>
       </c>
       <c r="N14">
-        <v>1.030206401337301</v>
+        <v>1.013098815211841</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.022165500207211</v>
+        <v>0.9819570627883409</v>
       </c>
       <c r="D15">
-        <v>1.027244644041976</v>
+        <v>1.004000381707397</v>
       </c>
       <c r="E15">
-        <v>0.9884438009545853</v>
+        <v>0.9332781050737295</v>
       </c>
       <c r="F15">
-        <v>1.018071019396213</v>
+        <v>0.9468029452900407</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.031656314271319</v>
+        <v>1.035479154573914</v>
       </c>
       <c r="J15">
-        <v>1.028797157093973</v>
+        <v>1.011944437911206</v>
       </c>
       <c r="K15">
-        <v>1.030828578790511</v>
+        <v>1.018775738484138</v>
       </c>
       <c r="L15">
-        <v>0.9921799884222134</v>
+        <v>0.9494987508782941</v>
       </c>
       <c r="M15">
-        <v>1.021689788522296</v>
+        <v>0.9627250264934633</v>
       </c>
       <c r="N15">
-        <v>1.03025816706173</v>
+        <v>1.013381515084689</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.022688198301587</v>
+        <v>0.9848184882889937</v>
       </c>
       <c r="D16">
-        <v>1.027619615074151</v>
+        <v>1.005974314633208</v>
       </c>
       <c r="E16">
-        <v>0.9890781214508737</v>
+        <v>0.9363637346017261</v>
       </c>
       <c r="F16">
-        <v>1.01898992044611</v>
+        <v>0.951625617497609</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.031764238285915</v>
+        <v>1.036266304341063</v>
       </c>
       <c r="J16">
-        <v>1.029097795293988</v>
+        <v>1.013568902148401</v>
       </c>
       <c r="K16">
-        <v>1.031087263982699</v>
+        <v>1.020200169062062</v>
       </c>
       <c r="L16">
-        <v>0.9926916645766087</v>
+        <v>0.9519451749175717</v>
       </c>
       <c r="M16">
-        <v>1.022489174909079</v>
+        <v>0.9668874567059577</v>
       </c>
       <c r="N16">
-        <v>1.030559232202473</v>
+        <v>1.01500828624743</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.023016079240298</v>
+        <v>0.9865883889557683</v>
       </c>
       <c r="D17">
-        <v>1.027854834838296</v>
+        <v>1.007196616605495</v>
       </c>
       <c r="E17">
-        <v>0.989476357848556</v>
+        <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>1.019566297089691</v>
+        <v>0.9545996473415551</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.031831553144755</v>
+        <v>1.036750134411668</v>
       </c>
       <c r="J17">
-        <v>1.029286171990116</v>
+        <v>1.014571893781085</v>
       </c>
       <c r="K17">
-        <v>1.031249309157577</v>
+        <v>1.021079628808175</v>
       </c>
       <c r="L17">
-        <v>0.9930127773699352</v>
+        <v>0.9534603602068056</v>
       </c>
       <c r="M17">
-        <v>1.022990427717103</v>
+        <v>0.9694534614427636</v>
       </c>
       <c r="N17">
-        <v>1.030747876415117</v>
+        <v>1.016012702243277</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.023207328781069</v>
+        <v>0.9876119993751645</v>
       </c>
       <c r="D18">
-        <v>1.027992038004897</v>
+        <v>1.0079039935829</v>
       </c>
       <c r="E18">
-        <v>0.9897087662937556</v>
+        <v>0.9393832867215687</v>
       </c>
       <c r="F18">
-        <v>1.01990248012018</v>
+        <v>0.9563166505203127</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.031870678669711</v>
+        <v>1.037028847377979</v>
       </c>
       <c r="J18">
-        <v>1.029395974748137</v>
+        <v>1.015151320094961</v>
       </c>
       <c r="K18">
-        <v>1.03134374753446</v>
+        <v>1.021587674415402</v>
       </c>
       <c r="L18">
-        <v>0.9932001317071769</v>
+        <v>0.954337351586573</v>
       </c>
       <c r="M18">
-        <v>1.023282736027173</v>
+        <v>0.9709345688926386</v>
       </c>
       <c r="N18">
-        <v>1.030857835105648</v>
+        <v>1.01659295140898</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.023272540284078</v>
+        <v>0.9879595654481258</v>
       </c>
       <c r="D19">
-        <v>1.028038821299989</v>
+        <v>1.008144260245051</v>
       </c>
       <c r="E19">
-        <v>0.9897880325774034</v>
+        <v>0.9397594814684967</v>
       </c>
       <c r="F19">
-        <v>1.020017108683994</v>
+        <v>0.9568991676672877</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03188399603421</v>
+        <v>1.037123295557602</v>
       </c>
       <c r="J19">
-        <v>1.029433402063876</v>
+        <v>1.015347954087656</v>
       </c>
       <c r="K19">
-        <v>1.031375935029077</v>
+        <v>1.021760081163538</v>
       </c>
       <c r="L19">
-        <v>0.9932640239640975</v>
+        <v>0.9546352493816592</v>
       </c>
       <c r="M19">
-        <v>1.023382394880294</v>
+        <v>0.9714369976741102</v>
       </c>
       <c r="N19">
-        <v>1.030895315572468</v>
+        <v>1.016789864644499</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.02298090049505</v>
+        <v>0.9863994054894394</v>
       </c>
       <c r="D20">
-        <v>1.027829597619938</v>
+        <v>1.007066054857579</v>
       </c>
       <c r="E20">
-        <v>0.9894336180360679</v>
+        <v>0.938071692466014</v>
       </c>
       <c r="F20">
-        <v>1.019504458162858</v>
+        <v>0.9542824083878171</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.031824345179793</v>
+        <v>1.036698587504342</v>
       </c>
       <c r="J20">
-        <v>1.02926596862519</v>
+        <v>1.014464865224685</v>
       </c>
       <c r="K20">
-        <v>1.031231931498754</v>
+        <v>1.020985783810427</v>
       </c>
       <c r="L20">
-        <v>0.9929783193494215</v>
+        <v>0.9532985019057444</v>
       </c>
       <c r="M20">
-        <v>1.022936654680617</v>
+        <v>0.9691797802813421</v>
       </c>
       <c r="N20">
-        <v>1.030727644359095</v>
+        <v>1.015905521694051</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.022032777225756</v>
+        <v>0.9812225496582043</v>
       </c>
       <c r="D21">
-        <v>1.027149433735004</v>
+        <v>1.003494121510305</v>
       </c>
       <c r="E21">
-        <v>0.9882828385668249</v>
+        <v>0.9324872132148896</v>
       </c>
       <c r="F21">
-        <v>1.017837680220131</v>
+        <v>0.9455619878683156</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.031628791838068</v>
+        <v>1.035276149304271</v>
       </c>
       <c r="J21">
-        <v>1.0287207547942</v>
+        <v>1.011526881496718</v>
       </c>
       <c r="K21">
-        <v>1.030762824586761</v>
+        <v>1.018409597688258</v>
       </c>
       <c r="L21">
-        <v>0.9920501090198102</v>
+        <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>1.021486749114238</v>
+        <v>0.961653702637993</v>
       </c>
       <c r="N21">
-        <v>1.030181656261927</v>
+        <v>1.012963365692198</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.021436676086645</v>
+        <v>0.9778830304123115</v>
       </c>
       <c r="D22">
-        <v>1.02672182460589</v>
+        <v>1.001194650213763</v>
       </c>
       <c r="E22">
-        <v>0.9875604150241495</v>
+        <v>0.9288972953651162</v>
       </c>
       <c r="F22">
-        <v>1.016789608021511</v>
+        <v>0.9399036712202243</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.031504596826823</v>
+        <v>1.034348509659518</v>
       </c>
       <c r="J22">
-        <v>1.028377289954112</v>
+        <v>1.009625615818816</v>
       </c>
       <c r="K22">
-        <v>1.030467161601272</v>
+        <v>1.016742477941243</v>
       </c>
       <c r="L22">
-        <v>0.9914670000341481</v>
+        <v>0.9460223821572518</v>
       </c>
       <c r="M22">
-        <v>1.020574531462177</v>
+        <v>0.9567676686135673</v>
       </c>
       <c r="N22">
-        <v>1.029837703662371</v>
+        <v>1.011059399998956</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.021752678419797</v>
+        <v>0.979661693583242</v>
       </c>
       <c r="D23">
-        <v>1.026948504520853</v>
+        <v>1.002418906446976</v>
       </c>
       <c r="E23">
-        <v>0.9879432794643023</v>
+        <v>0.9308081199963311</v>
       </c>
       <c r="F23">
-        <v>1.01734522228031</v>
+        <v>0.9429207090139277</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.031570552702612</v>
+        <v>1.034843516912738</v>
       </c>
       <c r="J23">
-        <v>1.028559430364201</v>
+        <v>1.010638818051912</v>
       </c>
       <c r="K23">
-        <v>1.030623965980078</v>
+        <v>1.017630891798641</v>
       </c>
       <c r="L23">
-        <v>0.991776070289318</v>
+        <v>0.9475391330285314</v>
       </c>
       <c r="M23">
-        <v>1.021058173964998</v>
+        <v>0.9593731538260805</v>
       </c>
       <c r="N23">
-        <v>1.030020102732734</v>
+        <v>1.012074041095439</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.02299679624911</v>
+        <v>0.986484825939356</v>
       </c>
       <c r="D24">
-        <v>1.02784100122195</v>
+        <v>1.007125067271802</v>
       </c>
       <c r="E24">
-        <v>0.9894529299347244</v>
+        <v>0.9381640424011821</v>
       </c>
       <c r="F24">
-        <v>1.019532400534754</v>
+        <v>0.9544258095394351</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.031827602575562</v>
+        <v>1.036721890120677</v>
       </c>
       <c r="J24">
-        <v>1.029275097885298</v>
+        <v>1.01451324409594</v>
       </c>
       <c r="K24">
-        <v>1.031239783961406</v>
+        <v>1.021028203524512</v>
       </c>
       <c r="L24">
-        <v>0.9929938892766442</v>
+        <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>1.022960952597838</v>
+        <v>0.9693034930825877</v>
       </c>
       <c r="N24">
-        <v>1.0307367865838</v>
+        <v>1.015953969268851</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.02444060819695</v>
+        <v>0.9940621316364584</v>
       </c>
       <c r="D25">
-        <v>1.028876826476721</v>
+        <v>1.012369176398344</v>
       </c>
       <c r="E25">
-        <v>0.9912096547607049</v>
+        <v>0.9463835801718014</v>
       </c>
       <c r="F25">
-        <v>1.022070213526037</v>
+        <v>0.9670887540831138</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.032120476834377</v>
+        <v>1.038765183227529</v>
       </c>
       <c r="J25">
-        <v>1.030102679556331</v>
+        <v>1.018790994588079</v>
       </c>
       <c r="K25">
-        <v>1.031951273472153</v>
+        <v>1.024778464072962</v>
       </c>
       <c r="L25">
-        <v>0.9944092447426414</v>
+        <v>0.959875449400583</v>
       </c>
       <c r="M25">
-        <v>1.02516652614416</v>
+        <v>0.9802204054307436</v>
       </c>
       <c r="N25">
-        <v>1.03156554351573</v>
+        <v>1.020237794657354</v>
       </c>
     </row>
   </sheetData>
